--- a/日本版コアインボイス/旧版/国税庁Q&A_R2-09改訂2021-01-26.xlsx
+++ b/日本版コアインボイス/旧版/国税庁Q&A_R2-09改訂2021-01-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pontsoleil\Documents\GitHub\EIPA\日本版コアインボイス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CECC5DE-EAD5-C84B-AAC8-D31E59BC8498}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{621E9197-3D00-42DD-B772-E57584A3A76D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="60" windowWidth="16840" windowHeight="15520" xr2:uid="{4618B0B3-59F1-EB41-A686-E99BAC95D9AC}"/>
+    <workbookView xWindow="11880" yWindow="60" windowWidth="16845" windowHeight="15510" xr2:uid="{4618B0B3-59F1-EB41-A686-E99BAC95D9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="適格(返還)請求書" sheetId="12" r:id="rId1"/>
@@ -4595,36 +4595,36 @@
   <dimension ref="A1:V1005"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="245" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="243" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="243" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="243" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="243" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="243" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="243" customWidth="1"/>
     <col min="5" max="5" width="12" style="243" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="243" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="243" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="243" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="243" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" style="243" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="243" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="243" customWidth="1"/>
     <col min="10" max="10" width="7.5" style="243" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="243" customWidth="1"/>
-    <col min="12" max="12" width="2.1640625" style="243" customWidth="1"/>
-    <col min="13" max="13" width="2.33203125" style="243" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="245" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" style="243" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.125" style="243" customWidth="1"/>
+    <col min="13" max="13" width="2.375" style="243" customWidth="1"/>
+    <col min="14" max="14" width="8.125" style="245" customWidth="1"/>
+    <col min="15" max="15" width="5.375" style="243" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="2" style="243" customWidth="1"/>
-    <col min="18" max="18" width="33.1640625" style="243" customWidth="1"/>
-    <col min="19" max="19" width="39.6640625" style="243" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.1640625" style="243" customWidth="1"/>
-    <col min="21" max="22" width="11.6640625" style="243" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="8.1640625" style="243" customWidth="1"/>
-    <col min="26" max="16384" width="12.6640625" style="243"/>
+    <col min="18" max="18" width="33.125" style="243" customWidth="1"/>
+    <col min="19" max="19" width="39.625" style="243" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" style="243" customWidth="1"/>
+    <col min="21" max="22" width="11.625" style="243" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="8.125" style="243" customWidth="1"/>
+    <col min="26" max="16384" width="12.625" style="243"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17">
+    <row r="1" spans="1:20" ht="17.25">
       <c r="A1" s="238"/>
       <c r="B1" s="239" t="s">
         <v>335</v>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="T5" s="271"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1">
+    <row r="6" spans="1:20" ht="14.25" thickBot="1">
       <c r="A6" s="246"/>
       <c r="C6" s="243" t="s">
         <v>191</v>
@@ -4792,7 +4792,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15">
+    <row r="7" spans="1:20">
       <c r="A7" s="246"/>
       <c r="B7" s="274" t="s">
         <v>198</v>
@@ -5184,7 +5184,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1">
+    <row r="17" spans="1:21" ht="14.25" thickBot="1">
       <c r="A17" s="246"/>
       <c r="B17" s="312"/>
       <c r="C17" s="313"/>
@@ -5375,7 +5375,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1">
+    <row r="23" spans="1:21" ht="14.25" thickBot="1">
       <c r="A23" s="330"/>
       <c r="B23" s="331"/>
       <c r="C23" s="331"/>
@@ -5674,7 +5674,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="2:22" ht="17">
+    <row r="36" spans="2:22" ht="17.25">
       <c r="G36" s="354"/>
       <c r="J36" s="247"/>
       <c r="N36" s="256" t="s">
@@ -8955,11 +8955,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" customWidth="1"/>
-    <col min="3" max="11" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="3" max="11" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8967,7 +8967,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19" thickBot="1">
+    <row r="2" spans="1:11" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>82</v>
       </c>
@@ -9218,7 +9218,7 @@
       <c r="J15" s="81"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="1:11" ht="19">
+    <row r="16" spans="1:11">
       <c r="A16" s="234" t="s">
         <v>55</v>
       </c>
@@ -9323,7 +9323,7 @@
       <c r="J20" s="211"/>
       <c r="K20" s="212"/>
     </row>
-    <row r="21" spans="1:11" ht="19">
+    <row r="21" spans="1:11">
       <c r="A21" s="234" t="s">
         <v>62</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="19">
+    <row r="22" spans="1:11">
       <c r="A22" s="234" t="s">
         <v>138</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="19">
+    <row r="23" spans="1:11">
       <c r="A23" s="234" t="s">
         <v>92</v>
       </c>
@@ -9596,7 +9596,7 @@
       <c r="J29" s="218"/>
       <c r="K29" s="219"/>
     </row>
-    <row r="30" spans="1:11" ht="19" thickBot="1">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1">
       <c r="A30" s="234" t="s">
         <v>96</v>
       </c>
@@ -9641,14 +9641,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="14" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="3" max="14" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" thickBot="1">
+    <row r="1" spans="1:11" ht="19.5" thickBot="1">
       <c r="B1" s="236" t="s">
         <v>174</v>
       </c>
@@ -9931,7 +9931,7 @@
       <c r="J15" s="30"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="1:11" ht="19">
+    <row r="16" spans="1:11">
       <c r="A16" s="132" t="s">
         <v>154</v>
       </c>
@@ -10008,7 +10008,7 @@
       <c r="J19" s="30"/>
       <c r="K19" s="31"/>
     </row>
-    <row r="20" spans="1:12" ht="19">
+    <row r="20" spans="1:12">
       <c r="A20" s="234" t="s">
         <v>55</v>
       </c>
@@ -10113,7 +10113,7 @@
       <c r="J24" s="211"/>
       <c r="K24" s="212"/>
     </row>
-    <row r="25" spans="1:12" ht="19">
+    <row r="25" spans="1:12">
       <c r="A25" s="234" t="s">
         <v>92</v>
       </c>
@@ -10371,7 +10371,7 @@
       <c r="J33" s="210"/>
       <c r="K33" s="219"/>
     </row>
-    <row r="34" spans="1:11" ht="19">
+    <row r="34" spans="1:11">
       <c r="A34" s="172" t="s">
         <v>153</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="39" thickBot="1">
+    <row r="35" spans="1:11" ht="38.25" thickBot="1">
       <c r="A35" s="234" t="s">
         <v>106</v>
       </c>
@@ -10440,15 +10440,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="172" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="120" customWidth="1"/>
-    <col min="3" max="13" width="15.83203125" style="120" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="120"/>
+    <col min="2" max="2" width="39.375" style="120" customWidth="1"/>
+    <col min="3" max="13" width="15.875" style="120" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" thickBot="1">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1">
       <c r="B1" s="236" t="s">
         <v>175</v>
       </c>
@@ -10724,7 +10724,7 @@
       <c r="I16" s="126"/>
       <c r="J16" s="127"/>
     </row>
-    <row r="17" spans="1:14" ht="19">
+    <row r="17" spans="1:14">
       <c r="A17" s="172" t="s">
         <v>154</v>
       </c>
@@ -10798,7 +10798,7 @@
       <c r="I20" s="126"/>
       <c r="J20" s="127"/>
     </row>
-    <row r="21" spans="1:14" ht="19">
+    <row r="21" spans="1:14">
       <c r="A21" s="172" t="s">
         <v>55</v>
       </c>
@@ -10898,7 +10898,7 @@
       <c r="I25" s="204"/>
       <c r="J25" s="198"/>
     </row>
-    <row r="26" spans="1:14" ht="19">
+    <row r="26" spans="1:14">
       <c r="A26" s="172" t="s">
         <v>92</v>
       </c>
@@ -11135,7 +11135,7 @@
       <c r="I34" s="161"/>
       <c r="J34" s="198"/>
     </row>
-    <row r="35" spans="1:10" ht="19">
+    <row r="35" spans="1:10">
       <c r="A35" s="172" t="s">
         <v>153</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>-3300</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="39" thickBot="1">
+    <row r="36" spans="1:10" ht="38.25" thickBot="1">
       <c r="A36" s="172" t="s">
         <v>106</v>
       </c>
@@ -11199,11 +11199,11 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="12" width="15.83203125" customWidth="1"/>
+    <col min="3" max="12" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11211,7 +11211,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" thickBot="1">
+    <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>23400</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19" thickBot="1">
+    <row r="14" spans="1:12" ht="19.5" thickBot="1">
       <c r="A14" s="234" t="s">
         <v>101</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19" thickBot="1">
+    <row r="16" spans="1:12" ht="19.5" thickBot="1">
       <c r="B16" s="46" t="s">
         <v>21</v>
       </c>
@@ -11785,7 +11785,7 @@
       <c r="E29" s="30"/>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:11" ht="19">
+    <row r="30" spans="1:11">
       <c r="A30" s="234" t="s">
         <v>55</v>
       </c>
@@ -11865,7 +11865,7 @@
       <c r="E34" s="211"/>
       <c r="F34" s="212"/>
     </row>
-    <row r="35" spans="1:6" ht="19">
+    <row r="35" spans="1:6">
       <c r="A35" s="234" t="s">
         <v>62</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="19" thickBot="1">
+    <row r="37" spans="1:6" ht="19.5" thickBot="1">
       <c r="A37" s="234" t="s">
         <v>66</v>
       </c>
@@ -11947,13 +11947,13 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="23" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="23" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -11961,7 +11961,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="19" thickBot="1">
+    <row r="2" spans="1:19" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>21</v>
       </c>
@@ -12316,7 +12316,7 @@
       <c r="R15" s="81"/>
       <c r="S15" s="31"/>
     </row>
-    <row r="16" spans="1:19" ht="19">
+    <row r="16" spans="1:19">
       <c r="A16" s="234" t="s">
         <v>55</v>
       </c>
@@ -12461,7 +12461,7 @@
       <c r="R20" s="211"/>
       <c r="S20" s="212"/>
     </row>
-    <row r="21" spans="1:19" ht="19">
+    <row r="21" spans="1:19">
       <c r="A21" s="234" t="s">
         <v>62</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="19">
+    <row r="22" spans="1:19">
       <c r="A22" s="234" t="s">
         <v>138</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="19">
+    <row r="23" spans="1:19">
       <c r="A23" s="234" t="s">
         <v>92</v>
       </c>
@@ -12903,7 +12903,7 @@
       <c r="R29" s="218"/>
       <c r="S29" s="219"/>
     </row>
-    <row r="30" spans="1:19" ht="19" thickBot="1">
+    <row r="30" spans="1:19" ht="19.5" thickBot="1">
       <c r="A30" s="234" t="s">
         <v>96</v>
       </c>
@@ -12966,11 +12966,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="12" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="12" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -12978,7 +12978,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" thickBot="1">
+    <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>28980</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19" thickBot="1">
+    <row r="15" spans="1:12" ht="19.5" thickBot="1">
       <c r="A15" s="234" t="s">
         <v>101</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19" thickBot="1">
+    <row r="17" spans="1:11" ht="19.5" thickBot="1">
       <c r="B17" s="46" t="s">
         <v>21</v>
       </c>
@@ -13614,7 +13614,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="19">
+    <row r="31" spans="1:11">
       <c r="A31" s="234" t="s">
         <v>55</v>
       </c>
@@ -13694,7 +13694,7 @@
       <c r="E35" s="211"/>
       <c r="F35" s="212"/>
     </row>
-    <row r="36" spans="1:6" ht="19">
+    <row r="36" spans="1:6">
       <c r="A36" s="234" t="s">
         <v>62</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="19" thickBot="1">
+    <row r="38" spans="1:6" ht="19.5" thickBot="1">
       <c r="A38" s="234" t="s">
         <v>66</v>
       </c>
@@ -13776,14 +13776,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="22" width="10.83203125" customWidth="1"/>
-    <col min="23" max="24" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="22" width="10.875" customWidth="1"/>
+    <col min="23" max="24" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -13791,7 +13791,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="19" thickBot="1">
+    <row r="2" spans="1:23" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>21</v>
       </c>
@@ -14162,7 +14162,7 @@
       <c r="S15" s="81"/>
       <c r="T15" s="31"/>
     </row>
-    <row r="16" spans="1:23" ht="19">
+    <row r="16" spans="1:23">
       <c r="A16" s="234" t="s">
         <v>55</v>
       </c>
@@ -14312,7 +14312,7 @@
       <c r="S20" s="211"/>
       <c r="T20" s="212"/>
     </row>
-    <row r="21" spans="1:20" ht="19">
+    <row r="21" spans="1:20">
       <c r="A21" s="234" t="s">
         <v>62</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19">
+    <row r="22" spans="1:20">
       <c r="A22" s="234" t="s">
         <v>138</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="19">
+    <row r="23" spans="1:20">
       <c r="A23" s="234" t="s">
         <v>92</v>
       </c>
@@ -14774,7 +14774,7 @@
       <c r="S29" s="218"/>
       <c r="T29" s="219"/>
     </row>
-    <row r="30" spans="1:20" ht="19" thickBot="1">
+    <row r="30" spans="1:20" ht="19.5" thickBot="1">
       <c r="A30" s="234" t="s">
         <v>96</v>
       </c>
@@ -14843,11 +14843,11 @@
       <selection activeCell="A6" sqref="A6:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="11" width="15.83203125" customWidth="1"/>
+    <col min="3" max="11" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -14855,7 +14855,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19" thickBot="1">
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>73</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="19" thickBot="1">
+    <row r="16" spans="1:9" ht="19.5" thickBot="1">
       <c r="A16" s="234" t="s">
         <v>312</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19" thickBot="1">
+    <row r="18" spans="1:4" ht="19.5" thickBot="1">
       <c r="B18" s="46" t="s">
         <v>21</v>
       </c>
@@ -15370,7 +15370,7 @@
       <c r="C35" s="209"/>
       <c r="D35" s="212"/>
     </row>
-    <row r="36" spans="1:4" ht="19">
+    <row r="36" spans="1:4">
       <c r="A36" s="234" t="s">
         <v>55</v>
       </c>
@@ -15440,7 +15440,7 @@
       <c r="C40" s="209"/>
       <c r="D40" s="212"/>
     </row>
-    <row r="41" spans="1:4" ht="19">
+    <row r="41" spans="1:4">
       <c r="A41" s="234" t="s">
         <v>62</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19" thickBot="1">
+    <row r="43" spans="1:4" ht="19.5" thickBot="1">
       <c r="A43" s="234" t="s">
         <v>66</v>
       </c>
@@ -15502,11 +15502,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="11" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="11" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -15514,7 +15514,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19" thickBot="1">
+    <row r="2" spans="1:11" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>21</v>
       </c>
@@ -15765,7 +15765,7 @@
       <c r="J15" s="81"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="1:11" ht="19">
+    <row r="16" spans="1:11">
       <c r="A16" s="234" t="s">
         <v>55</v>
       </c>
@@ -15870,7 +15870,7 @@
       <c r="J20" s="211"/>
       <c r="K20" s="212"/>
     </row>
-    <row r="21" spans="1:11" ht="19">
+    <row r="21" spans="1:11">
       <c r="A21" s="234" t="s">
         <v>62</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="19">
+    <row r="22" spans="1:11">
       <c r="A22" s="234" t="s">
         <v>138</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="19">
+    <row r="23" spans="1:11">
       <c r="A23" s="234" t="s">
         <v>92</v>
       </c>
@@ -16143,7 +16143,7 @@
       <c r="J29" s="218"/>
       <c r="K29" s="219"/>
     </row>
-    <row r="30" spans="1:11" ht="19" thickBot="1">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1">
       <c r="A30" s="234" t="s">
         <v>96</v>
       </c>
@@ -16191,14 +16191,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="14" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="3" max="14" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" thickBot="1">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1">
       <c r="B1" s="236" t="s">
         <v>171</v>
       </c>
@@ -16409,7 +16409,7 @@
       <c r="H13" s="30"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:10" ht="19">
+    <row r="14" spans="1:10">
       <c r="A14" s="234" t="s">
         <v>55</v>
       </c>
@@ -16504,7 +16504,7 @@
       <c r="H18" s="211"/>
       <c r="I18" s="212"/>
     </row>
-    <row r="19" spans="1:12" ht="19">
+    <row r="19" spans="1:12">
       <c r="A19" s="234" t="s">
         <v>92</v>
       </c>
@@ -16681,7 +16681,7 @@
       <c r="H25" s="218"/>
       <c r="I25" s="219"/>
     </row>
-    <row r="26" spans="1:12" ht="19" thickBot="1">
+    <row r="26" spans="1:12" ht="19.5" thickBot="1">
       <c r="A26" s="234" t="s">
         <v>96</v>
       </c>
@@ -16727,11 +16727,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8" style="234" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="11" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="11" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -16739,7 +16739,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19" thickBot="1">
+    <row r="2" spans="1:9" ht="19.5" thickBot="1">
       <c r="B2" s="46" t="s">
         <v>81</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="19" thickBot="1">
+    <row r="16" spans="1:9" ht="19.5" thickBot="1">
       <c r="A16" s="234" t="s">
         <v>312</v>
       </c>
@@ -17048,7 +17048,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19" thickBot="1">
+    <row r="18" spans="1:4" ht="19.5" thickBot="1">
       <c r="B18" s="46" t="s">
         <v>82</v>
       </c>
@@ -17208,7 +17208,7 @@
       <c r="C31" s="209"/>
       <c r="D31" s="212"/>
     </row>
-    <row r="32" spans="1:4" ht="19">
+    <row r="32" spans="1:4">
       <c r="A32" s="234" t="s">
         <v>55</v>
       </c>
@@ -17278,7 +17278,7 @@
       <c r="C36" s="209"/>
       <c r="D36" s="212"/>
     </row>
-    <row r="37" spans="1:4" ht="19">
+    <row r="37" spans="1:4">
       <c r="A37" s="234" t="s">
         <v>62</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19" thickBot="1">
+    <row r="39" spans="1:4" ht="19.5" thickBot="1">
       <c r="A39" s="234" t="s">
         <v>66</v>
       </c>
